--- a/AccessoryOlfactoryBulb/MitralCell/ipython/TransientSodium/iAMC_kinetics.xlsx
+++ b/AccessoryOlfactoryBulb/MitralCell/ipython/TransientSodium/iAMC_kinetics.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NaT_tau_inact" sheetId="1" r:id="rId1"/>
     <sheet name="NaT_tau_act" sheetId="2" r:id="rId2"/>
     <sheet name="Kdr_tau_act" sheetId="3" r:id="rId3"/>
     <sheet name="CaV_R_tau_inact" sheetId="4" r:id="rId4"/>
+    <sheet name="NaT_inf_inact" sheetId="5" r:id="rId5"/>
+    <sheet name="NaT_inf_act" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="3">
   <si>
     <t>SD</t>
   </si>
@@ -67,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -79,6 +81,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -378,7 +383,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:K10"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -574,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:K9"/>
     </sheetView>
   </sheetViews>
@@ -1099,4 +1104,452 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C1" s="4">
+        <v>-90</v>
+      </c>
+      <c r="D1" s="4">
+        <v>-80</v>
+      </c>
+      <c r="E1" s="4">
+        <v>-70</v>
+      </c>
+      <c r="F1" s="4">
+        <v>-60</v>
+      </c>
+      <c r="G1" s="4">
+        <v>-50</v>
+      </c>
+      <c r="H1" s="4">
+        <v>-40</v>
+      </c>
+      <c r="I1" s="4">
+        <v>-30</v>
+      </c>
+      <c r="J1" s="4">
+        <v>-20</v>
+      </c>
+      <c r="K1" s="4">
+        <v>-10</v>
+      </c>
+      <c r="L1" s="4">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4">
+        <v>20</v>
+      </c>
+      <c r="O1" s="4">
+        <v>30</v>
+      </c>
+      <c r="P1" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.99105100000000002</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.98177800000000004</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.96634200000000003</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.98531199999999997</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.76738099999999998</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.40529399999999999</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.18531</v>
+      </c>
+      <c r="J2" s="4">
+        <v>8.8839799999999997E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>4.2595599999999997E-2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.8169200000000001E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.5103699999999999E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>9.0817299999999997E-3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.9301600000000001E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.118613</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.159719</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.127634</v>
+      </c>
+      <c r="J3" s="4">
+        <v>8.6147000000000001E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>6.5250699999999995E-2</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.9918599999999998E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.068E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6.4217500000000004E-3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>9.7672100000000001E-3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3.9537599999999999E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.3239700000000001E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4.2544600000000002E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2.87157E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2.1750200000000001E-2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C1" s="4">
+        <v>-90</v>
+      </c>
+      <c r="D1" s="4">
+        <v>-80</v>
+      </c>
+      <c r="E1" s="4">
+        <v>-70</v>
+      </c>
+      <c r="F1" s="4">
+        <v>-60</v>
+      </c>
+      <c r="G1" s="4">
+        <v>-50</v>
+      </c>
+      <c r="H1" s="4">
+        <v>-40</v>
+      </c>
+      <c r="I1" s="4">
+        <v>-30</v>
+      </c>
+      <c r="J1" s="4">
+        <v>-20</v>
+      </c>
+      <c r="K1" s="4">
+        <v>-10</v>
+      </c>
+      <c r="L1" s="4">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4">
+        <v>20</v>
+      </c>
+      <c r="O1" s="4">
+        <v>30</v>
+      </c>
+      <c r="P1" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.230818</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.92655500000000002</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.89280599999999999</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.86229699999999998</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.818936</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.78024400000000005</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0.74665999999999999</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.71025700000000003</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.66946099999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.43665900000000002</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.7643499999999999E-2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3.0018699999999999E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3.8357200000000001E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>5.5595499999999999E-2</v>
+      </c>
+      <c r="L3" s="4">
+        <v>6.7766300000000002E-2</v>
+      </c>
+      <c r="M3" s="4">
+        <v>8.6252300000000004E-2</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.107416</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.12745500000000001</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.15342500000000001</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.175676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.14555299999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.8811699999999998E-3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.00062E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.2785700000000001E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.8531800000000001E-2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2.2588799999999999E-2</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2.87508E-2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>3.5805299999999998E-2</v>
+      </c>
+      <c r="O4" s="4">
+        <v>4.2484899999999999E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>5.1141499999999999E-2</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>5.8558699999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>